--- a/Assets/Resources/Data/Stages.xlsx
+++ b/Assets/Resources/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18270" windowHeight="7600" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -138,15 +138,96 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -160,31 +241,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,28 +251,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -228,38 +265,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,15 +275,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,13 +295,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -302,48 +302,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -359,13 +317,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,49 +329,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,13 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,13 +377,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,13 +443,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +496,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,30 +532,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -550,8 +541,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +558,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,16 +604,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,127 +622,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1502,8 +1502,8 @@
   <sheetPr/>
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -3156,11 +3156,11 @@
         <v>5</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D58" t="str">
         <f>INDEX(Define!B:B,MATCH(C58,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E58">
         <v>12</v>

--- a/Assets/Resources/Data/Stages.xlsx
+++ b/Assets/Resources/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6690" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -138,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -153,14 +153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,7 +167,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,10 +197,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,13 +220,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,7 +258,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -268,14 +276,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,25 +305,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,43 +335,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,7 +401,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,25 +431,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,61 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,6 +514,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -525,24 +543,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,7 +566,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,46 +604,46 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,97 +652,97 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1500,10 +1500,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -3367,11 +3367,11 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E65">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F65" t="str">
         <f>INDEX(Define!E:E,MATCH(E65,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>ADV再生</v>
       </c>
       <c r="G65">
         <v>140</v>
@@ -3384,7 +3384,7 @@
         <v>Stage2_1</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3392,27 +3392,31 @@
         <v>12</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D66" t="str">
         <f>INDEX(Define!B:B,MATCH(C66,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F66" t="str">
         <f>INDEX(Define!E:E,MATCH(E66,Define!D:D))</f>
-        <v>アルカナフラグを管理</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="H66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I66" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G66,[1]Advs!A:A))</f>
+        <v>Stage2_1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>2</v>
       </c>
@@ -3427,20 +3431,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67" t="str">
         <f>INDEX(Define!E:E,MATCH(E67,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>アルカナフラグを管理</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:8">
       <c r="A68">
         <v>2</v>
       </c>
@@ -3455,11 +3459,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F68" t="str">
         <f>INDEX(Define!E:E,MATCH(E68,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -3483,20 +3487,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" t="str">
         <f>INDEX(Define!E:E,MATCH(E69,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>2</v>
       </c>
@@ -3511,29 +3515,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E70">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F70" t="str">
         <f>INDEX(Define!E:E,MATCH(E70,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G70">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G70,[1]Advs!A:A))</f>
-        <v>Tutorial13</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>2</v>
       </c>
       <c r="B71">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3543,20 +3543,24 @@
         <v>Tactics開始</v>
       </c>
       <c r="E71">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F71" t="str">
         <f>INDEX(Define!E:E,MATCH(E71,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ADV再生</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G71,[1]Advs!A:A))</f>
+        <v>Tutorial13</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:8">
       <c r="A72">
         <v>2</v>
       </c>
@@ -3571,11 +3575,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" t="str">
         <f>INDEX(Define!E:E,MATCH(E72,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -3599,52 +3603,48 @@
         <v>Tactics開始</v>
       </c>
       <c r="E73">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F73" t="str">
         <f>INDEX(Define!E:E,MATCH(E73,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>2</v>
       </c>
       <c r="B74">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C74">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D74" t="str">
         <f>INDEX(Define!B:B,MATCH(C74,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E74">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F74" t="str">
         <f>INDEX(Define!E:E,MATCH(E74,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G74">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G74,[1]Advs!A:A))</f>
-        <v>Event3_5</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>2</v>
       </c>
@@ -3652,27 +3652,31 @@
         <v>24</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D75" t="str">
         <f>INDEX(Define!B:B,MATCH(C75,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E75">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F75" t="str">
         <f>INDEX(Define!E:E,MATCH(E75,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G75,[1]Advs!A:A))</f>
+        <v>Event3_5</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:8">
       <c r="A76">
         <v>2</v>
       </c>
@@ -3687,11 +3691,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E76">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F76" t="str">
         <f>INDEX(Define!E:E,MATCH(E76,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -3715,17 +3719,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E77">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" t="str">
         <f>INDEX(Define!E:E,MATCH(E77,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3733,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="B78">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -3750,41 +3754,69 @@
         <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>2</v>
       </c>
       <c r="B79">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C79">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D79" t="str">
         <f>INDEX(Define!B:B,MATCH(C79,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E79">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F79" t="str">
         <f>INDEX(Define!E:E,MATCH(E79,Define!D:D))</f>
+        <v>ボスの選択番号を設定する</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>36</v>
+      </c>
+      <c r="C80">
+        <v>11</v>
+      </c>
+      <c r="D80" t="str">
+        <f>INDEX(Define!B:B,MATCH(C80,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E80">
+        <v>12</v>
+      </c>
+      <c r="F80" t="str">
+        <f>INDEX(Define!E:E,MATCH(E80,Define!D:D))</f>
         <v>IDにActorIDを加算してADV再生</v>
       </c>
-      <c r="G79">
+      <c r="G80">
         <v>160</v>
       </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G79,[1]Advs!A:A))</f>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G80,[1]Advs!A:A))</f>
         <v>Event4_5</v>
       </c>
     </row>

--- a/Assets/Resources/Data/Stages.xlsx
+++ b/Assets/Resources/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -138,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -149,34 +149,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,8 +168,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -205,14 +192,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,17 +205,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,16 +229,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,11 +251,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,9 +289,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,13 +305,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,25 +401,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,103 +431,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,13 +473,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,11 +523,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,21 +568,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -571,17 +577,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,16 +604,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,127 +622,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1502,8 +1502,8 @@
   <sheetPr/>
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -3421,7 +3421,7 @@
         <v>2</v>
       </c>
       <c r="B67">
-        <v>12</v>
+        <v>999</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3533,7 +3533,7 @@
         <v>2</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>999</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3649,7 +3649,7 @@
         <v>2</v>
       </c>
       <c r="B75">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C75">
         <v>11</v>

--- a/Assets/Resources/Data/Stages.xlsx
+++ b/Assets/Resources/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6690" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -34,7 +34,16 @@
     <t>InitMembers</t>
   </si>
   <si>
+    <t>RandomTroopCount</t>
+  </si>
+  <si>
+    <t>BGMId</t>
+  </si>
+  <si>
     <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
   </si>
   <si>
     <t>Timing</t>
@@ -74,6 +83,18 @@
 上位者は事態を収拾すべく
 導く者(Magister)「\p」に
 道なき者(The Pathless)討伐を命じた。</t>
+  </si>
+  <si>
+    <t>Cルート用</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>Bルート用</t>
+  </si>
+  <si>
+    <t>Aルート用</t>
   </si>
   <si>
     <t>なし</t>
@@ -130,7 +151,19 @@
     <t>IDにActorIDを加算してADV再生</t>
   </si>
   <si>
+    <t>ルート分岐イベント</t>
+  </si>
+  <si>
+    <t>ルート分岐パラメータ設定</t>
+  </si>
+  <si>
     <t>ステージ中断</t>
+  </si>
+  <si>
+    <t>ルート分岐でステージに移動</t>
+  </si>
+  <si>
+    <t>ルート分岐敵グループを生成</t>
   </si>
 </sst>
 </file>
@@ -138,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -152,17 +185,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,46 +229,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,22 +254,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,9 +284,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,8 +314,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,7 +338,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,31 +386,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,61 +446,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,37 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,19 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,30 +529,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,16 +548,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,8 +580,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,8 +589,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,16 +637,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,127 +655,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,146 +1068,170 @@
         </row>
         <row r="27">
           <cell r="A27">
-            <v>141</v>
+            <v>140</v>
           </cell>
           <cell r="B27" t="str">
-            <v>Event3_1</v>
+            <v>Event3_0</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>142</v>
+            <v>141</v>
           </cell>
           <cell r="B28" t="str">
-            <v>Event3_2</v>
+            <v>Event3_1</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>143</v>
+            <v>142</v>
           </cell>
           <cell r="B29" t="str">
-            <v>Event3_3</v>
+            <v>Event3_2</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>144</v>
+            <v>143</v>
           </cell>
           <cell r="B30" t="str">
-            <v>Event3_4</v>
+            <v>Event3_3</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>145</v>
+            <v>144</v>
           </cell>
           <cell r="B31" t="str">
-            <v>Event3_5</v>
+            <v>Event3_4</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>151</v>
+            <v>145</v>
           </cell>
           <cell r="B32" t="str">
-            <v>Event4_1</v>
+            <v>Event3_5</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>152</v>
+            <v>151</v>
           </cell>
           <cell r="B33" t="str">
-            <v>Event4_2</v>
+            <v>Event4_1</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>153</v>
+            <v>152</v>
           </cell>
           <cell r="B34" t="str">
-            <v>Event4_3</v>
+            <v>Event4_2</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>154</v>
+            <v>153</v>
           </cell>
           <cell r="B35" t="str">
-            <v>Event4_4</v>
+            <v>Event4_3</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>155</v>
+            <v>154</v>
           </cell>
           <cell r="B36" t="str">
-            <v>Event4_5</v>
+            <v>Event4_4</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>161</v>
+            <v>155</v>
           </cell>
           <cell r="B37" t="str">
-            <v>Event5_1</v>
+            <v>Event4_5</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>162</v>
+            <v>161</v>
           </cell>
           <cell r="B38" t="str">
-            <v>Event5_2</v>
+            <v>Event5_1</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>163</v>
+            <v>162</v>
           </cell>
           <cell r="B39" t="str">
-            <v>Event5_3</v>
+            <v>Event5_2</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>164</v>
+            <v>163</v>
           </cell>
           <cell r="B40" t="str">
-            <v>Event5_4</v>
+            <v>Event5_3</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>165</v>
+            <v>164</v>
           </cell>
           <cell r="B41" t="str">
-            <v>Event5_5</v>
+            <v>Event5_4</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>171</v>
+            <v>165</v>
           </cell>
           <cell r="B42" t="str">
-            <v>Event6_1</v>
+            <v>Event5_5</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>172</v>
+            <v>171</v>
           </cell>
           <cell r="B43" t="str">
-            <v>Event6_2</v>
+            <v>Event6_1</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
+            <v>172</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>Event6_2</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
             <v>173</v>
           </cell>
-          <cell r="B44" t="str">
+          <cell r="B45" t="str">
             <v>Event6_3</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>201</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>RouteSelect1</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>202</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>RouteSelect2</v>
           </cell>
         </row>
       </sheetData>
@@ -1441,15 +1498,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1462,8 +1519,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1476,8 +1539,14 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1488,7 +1557,73 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1500,10 +1635,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1520,16 +1655,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3381,7 +3516,7 @@
       </c>
       <c r="I65" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G65,[1]Advs!A:A))</f>
-        <v>Stage2_1</v>
+        <v>Event3_0</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3413,7 +3548,7 @@
       </c>
       <c r="I66" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G66,[1]Advs!A:A))</f>
-        <v>Stage2_1</v>
+        <v>Event3_0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3818,6 +3953,206 @@
       <c r="I80" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G80,[1]Advs!A:A))</f>
         <v>Event4_5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <v>36</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="str">
+        <f>INDEX(Define!B:B,MATCH(C81,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E81">
+        <v>14</v>
+      </c>
+      <c r="F81" t="str">
+        <f>INDEX(Define!E:E,MATCH(E81,Define!D:D))</f>
+        <v>ルート分岐パラメータ設定</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>37</v>
+      </c>
+      <c r="C82">
+        <v>11</v>
+      </c>
+      <c r="D82" t="str">
+        <f>INDEX(Define!B:B,MATCH(C82,Define!A:A))</f>
+        <v>Tactics開始(UI表示前)</v>
+      </c>
+      <c r="E82">
+        <v>13</v>
+      </c>
+      <c r="F82" t="str">
+        <f>INDEX(Define!E:E,MATCH(E82,Define!D:D))</f>
+        <v>ルート分岐イベント</v>
+      </c>
+      <c r="G82">
+        <v>200</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G82,[1]Advs!A:A))</f>
+        <v>Event6_3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83">
+        <v>37</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="str">
+        <f>INDEX(Define!B:B,MATCH(C83,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E83">
+        <v>7</v>
+      </c>
+      <c r="F83" t="str">
+        <f>INDEX(Define!E:E,MATCH(E83,Define!D:D))</f>
+        <v>セーブを行う</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>37</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="str">
+        <f>INDEX(Define!B:B,MATCH(C84,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E84">
+        <v>31</v>
+      </c>
+      <c r="F84" t="str">
+        <f>INDEX(Define!E:E,MATCH(E84,Define!D:D))</f>
+        <v>ルート分岐でステージに移動</v>
+      </c>
+      <c r="G84">
+        <v>11</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>11</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="str">
+        <f>INDEX(Define!B:B,MATCH(C85,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E85">
+        <v>32</v>
+      </c>
+      <c r="F85" t="str">
+        <f>INDEX(Define!E:E,MATCH(E85,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>12</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="str">
+        <f>INDEX(Define!B:B,MATCH(C86,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E86">
+        <v>32</v>
+      </c>
+      <c r="F86" t="str">
+        <f>INDEX(Define!E:E,MATCH(E86,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>13</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="str">
+        <f>INDEX(Define!B:B,MATCH(C87,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E87">
+        <v>32</v>
+      </c>
+      <c r="F87" t="str">
+        <f>INDEX(Define!E:E,MATCH(E87,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3829,13 +4164,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="27.1818181818182" customWidth="1"/>
     <col min="3" max="3" width="45.3636363636364" customWidth="1"/>
@@ -3846,10 +4181,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" ht="26" spans="1:3">
@@ -3857,10 +4192,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="143" spans="1:3">
@@ -3868,10 +4203,43 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3883,20 +4251,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3904,13 +4272,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3918,13 +4286,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3932,13 +4300,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3946,13 +4314,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3960,13 +4328,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3974,13 +4342,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3988,13 +4356,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="4:5">
@@ -4002,7 +4370,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="4:5">
@@ -4010,7 +4378,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="4:5">
@@ -4018,7 +4386,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="4:5">
@@ -4026,7 +4394,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="4:5">
@@ -4034,15 +4402,47 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="4:5">
       <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16">
         <v>21</v>
       </c>
-      <c r="E14" t="s">
-        <v>33</v>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Stages.xlsx
+++ b/Assets/Resources/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -171,9 +171,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -193,22 +193,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,9 +229,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,16 +252,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,39 +267,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -315,6 +284,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -322,8 +299,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,25 +344,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,13 +380,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,43 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,19 +446,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,13 +482,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,19 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,6 +543,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,39 +604,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -629,6 +620,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -637,145 +637,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1500,7 +1500,7 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1637,8 +1637,8 @@
   <sheetPr/>
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A50" sqref="$A50:$XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>

--- a/Assets/Resources/Data/Stages.xlsx
+++ b/Assets/Resources/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -173,8 +173,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -186,39 +186,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,9 +207,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,16 +276,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,30 +292,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -309,9 +301,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,7 +338,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +362,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,19 +440,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,61 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,19 +488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,37 +506,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,17 +532,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,15 +552,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,8 +589,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,15 +629,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -637,16 +637,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,127 +655,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1232,6 +1232,14 @@
           </cell>
           <cell r="B47" t="str">
             <v>RouteSelect2</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>203</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>Gameover</v>
           </cell>
         </row>
       </sheetData>
@@ -1500,8 +1508,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1635,10 +1643,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A50" sqref="$A50:$XFD52"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -4101,7 +4109,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4114,11 +4122,11 @@
         <v>Tactics開始</v>
       </c>
       <c r="E86">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F86" t="str">
         <f>INDEX(Define!E:E,MATCH(E86,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -4129,7 +4137,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -4142,16 +4150,156 @@
         <v>Tactics開始</v>
       </c>
       <c r="E87">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F87" t="str">
         <f>INDEX(Define!E:E,MATCH(E87,Define!D:D))</f>
+        <v>コマンドを制限する</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>11</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="str">
+        <f>INDEX(Define!B:B,MATCH(C88,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="str">
+        <f>INDEX(Define!E:E,MATCH(E88,Define!D:D))</f>
+        <v>コマンドを制限する</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>11</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="str">
+        <f>INDEX(Define!B:B,MATCH(C89,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="str">
+        <f>INDEX(Define!E:E,MATCH(E89,Define!D:D))</f>
+        <v>コマンドを制限する</v>
+      </c>
+      <c r="G89">
+        <v>4</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>11</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="str">
+        <f>INDEX(Define!B:B,MATCH(C90,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90" t="str">
+        <f>INDEX(Define!E:E,MATCH(E90,Define!D:D))</f>
+        <v>全員コマンドを選ばないと進まない</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>12</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="str">
+        <f>INDEX(Define!B:B,MATCH(C91,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E91">
+        <v>32</v>
+      </c>
+      <c r="F91" t="str">
+        <f>INDEX(Define!E:E,MATCH(E91,Define!D:D))</f>
         <v>ルート分岐敵グループを生成</v>
       </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>13</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="str">
+        <f>INDEX(Define!B:B,MATCH(C92,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E92">
+        <v>32</v>
+      </c>
+      <c r="F92" t="str">
+        <f>INDEX(Define!E:E,MATCH(E92,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Data/Stages.xlsx
+++ b/Assets/Resources/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -185,11 +185,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,6 +208,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,51 +252,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -277,23 +261,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,14 +275,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -323,7 +283,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,31 +338,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +368,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,37 +458,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,25 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,25 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,31 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,11 +532,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,17 +580,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,32 +613,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,7 +637,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,7 +646,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,127 +655,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1240,6 +1240,14 @@
           </cell>
           <cell r="B48" t="str">
             <v>Gameover</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>204</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>Turnover</v>
           </cell>
         </row>
       </sheetData>
@@ -1508,8 +1516,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1582,7 +1590,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1602,13 +1610,13 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1622,13 +1630,13 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1645,8 +1653,8 @@
   <sheetPr/>
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>

--- a/Assets/Resources/Data/Stages.xlsx
+++ b/Assets/Resources/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -171,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -185,8 +185,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,6 +221,45 @@
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,9 +277,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,27 +291,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,61 +308,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,13 +338,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,19 +380,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,19 +416,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,115 +512,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,6 +529,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -550,17 +574,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,21 +590,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -613,8 +613,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,145 +637,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1651,10 +1651,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2367,7 +2367,7 @@
         <v>Tutorial3</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2382,20 +2382,24 @@
         <v>Strategy開始</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F26" t="str">
         <f>INDEX(Define!E:E,MATCH(E26,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ADV再生</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G26,[1]Advs!A:A))</f>
+        <v>Tutorial4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2403,24 +2407,28 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="str">
         <f>INDEX(Define!B:B,MATCH(C27,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battle開始</v>
       </c>
       <c r="E27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F27" t="str">
         <f>INDEX(Define!E:E,MATCH(E27,Define!D:D))</f>
-        <v>SPを消費しないと進まない</v>
+        <v>ADV再生</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>1</v>
+      </c>
+      <c r="I27" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G27,[1]Advs!A:A))</f>
+        <v>Tutorial5</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2431,11 +2439,11 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="str">
         <f>INDEX(Define!B:B,MATCH(C28,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Battleコマンド後</v>
       </c>
       <c r="E28">
         <v>11</v>
@@ -2445,14 +2453,14 @@
         <v>ADV再生</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G28,[1]Advs!A:A))</f>
-        <v>Tutorial4</v>
+        <v>Tutorial6</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2463,11 +2471,11 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="str">
         <f>INDEX(Define!B:B,MATCH(C29,Define!A:A))</f>
-        <v>Battle開始</v>
+        <v>神化した後</v>
       </c>
       <c r="E29">
         <v>11</v>
@@ -2477,78 +2485,70 @@
         <v>ADV再生</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G29,[1]Advs!A:A))</f>
-        <v>Tutorial5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>Tutorial7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D30" t="str">
         <f>INDEX(Define!B:B,MATCH(C30,Define!A:A))</f>
-        <v>Battleコマンド後</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F30" t="str">
         <f>INDEX(Define!E:E,MATCH(E30,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G30,[1]Advs!A:A))</f>
-        <v>Tutorial6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D31" t="str">
         <f>INDEX(Define!B:B,MATCH(C31,Define!A:A))</f>
-        <v>神化した後</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E31">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F31" t="str">
         <f>INDEX(Define!E:E,MATCH(E31,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G31,[1]Advs!A:A))</f>
-        <v>Tutorial7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2573,7 +2573,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2601,13 +2601,13 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2622,17 +2622,21 @@
         <v>Tactics開始</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F34" t="str">
         <f>INDEX(Define!E:E,MATCH(E34,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ADV再生</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I34" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G34,[1]Advs!A:A))</f>
+        <v>Tutorial8</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2650,25 +2654,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" t="str">
         <f>INDEX(Define!E:E,MATCH(E35,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>全員コマンドを選ばないと進まない</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2678,21 +2682,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E36">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F36" t="str">
         <f>INDEX(Define!E:E,MATCH(E36,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G36">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G36,[1]Advs!A:A))</f>
-        <v>Tutorial8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2710,14 +2710,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37" t="str">
         <f>INDEX(Define!E:E,MATCH(E37,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2794,17 +2794,21 @@
         <v>Tactics開始</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F40" t="str">
         <f>INDEX(Define!E:E,MATCH(E40,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ADV再生</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I40" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G40,[1]Advs!A:A))</f>
+        <v>Tutorial9</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2822,14 +2826,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" t="str">
         <f>INDEX(Define!E:E,MATCH(E41,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>全員コマンドを選ばないと進まない</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2843,11 +2847,11 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="str">
         <f>INDEX(Define!B:B,MATCH(C42,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Strategy開始</v>
       </c>
       <c r="E42">
         <v>11</v>
@@ -2857,82 +2861,82 @@
         <v>ADV再生</v>
       </c>
       <c r="G42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G42,[1]Advs!A:A))</f>
-        <v>Tutorial9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>Tutorial10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D43" t="str">
         <f>INDEX(Define!B:B,MATCH(C43,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F43" t="str">
         <f>INDEX(Define!E:E,MATCH(E43,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
+        <v>ADV再生</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="I43" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G43,[1]Advs!A:A))</f>
+        <v>Tutorial11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" t="str">
         <f>INDEX(Define!B:B,MATCH(C44,Define!A:A))</f>
-        <v>Strategy開始</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E44">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F44" t="str">
         <f>INDEX(Define!E:E,MATCH(E44,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>ステージ中断</v>
       </c>
       <c r="G44">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G44,[1]Advs!A:A))</f>
-        <v>Tutorial10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2942,49 +2946,49 @@
         <v>Tactics開始</v>
       </c>
       <c r="E45">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F45" t="str">
         <f>INDEX(Define!E:E,MATCH(E45,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
         <v>11</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G45,[1]Advs!A:A))</f>
-        <v>Tutorial11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46">
-        <v>6</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
       </c>
       <c r="D46" t="str">
         <f>INDEX(Define!B:B,MATCH(C46,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E46">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F46" t="str">
         <f>INDEX(Define!E:E,MATCH(E46,Define!D:D))</f>
-        <v>ステージ中断</v>
+        <v>ADV再生</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I46" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G46,[1]Advs!A:A))</f>
+        <v>Opening</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2995,56 +2999,52 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D47" t="str">
         <f>INDEX(Define!B:B,MATCH(C47,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F47" t="str">
         <f>INDEX(Define!E:E,MATCH(E47,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="H47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>2</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D48" t="str">
         <f>INDEX(Define!B:B,MATCH(C48,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E48">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F48" t="str">
         <f>INDEX(Define!E:E,MATCH(E48,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G48">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G48,[1]Advs!A:A))</f>
-        <v>Opening</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3052,27 +3052,27 @@
         <v>2</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D49" t="str">
         <f>INDEX(Define!B:B,MATCH(C49,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E49">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F49" t="str">
         <f>INDEX(Define!E:E,MATCH(E49,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G49">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3080,7 +3080,7 @@
         <v>2</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3108,7 +3108,7 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3125,7 +3125,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3153,7 +3153,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -3181,7 +3181,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -3230,14 +3230,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" t="str">
         <f>INDEX(Define!E:E,MATCH(E55,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>全員コマンドを選ばないと進まない</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -3251,52 +3251,56 @@
         <v>5</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D56" t="str">
         <f>INDEX(Define!B:B,MATCH(C56,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F56" t="str">
         <f>INDEX(Define!E:E,MATCH(E56,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="H56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>2</v>
       </c>
       <c r="B57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D57" t="str">
         <f>INDEX(Define!B:B,MATCH(C57,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F57" t="str">
         <f>INDEX(Define!E:E,MATCH(E57,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
+        <v>ADV再生</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G57,[1]Advs!A:A))</f>
+        <v>Stage2_1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3304,30 +3308,30 @@
         <v>2</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D58" t="str">
         <f>INDEX(Define!B:B,MATCH(C58,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E58">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F58" t="str">
         <f>INDEX(Define!E:E,MATCH(E58,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G58">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3335,28 +3339,24 @@
         <v>6</v>
       </c>
       <c r="C59">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D59" t="str">
         <f>INDEX(Define!B:B,MATCH(C59,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E59">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F59" t="str">
         <f>INDEX(Define!E:E,MATCH(E59,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G59">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="H59">
         <v>1</v>
-      </c>
-      <c r="I59" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G59,[1]Advs!A:A))</f>
-        <v>Stage2_1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3374,17 +3374,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E60">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F60" t="str">
         <f>INDEX(Define!E:E,MATCH(E60,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3402,20 +3402,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E61">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F61" t="str">
         <f>INDEX(Define!E:E,MATCH(E61,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>隷従属度フラグを管理</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>2</v>
       </c>
@@ -3430,45 +3430,53 @@
         <v>Tactics開始</v>
       </c>
       <c r="E62">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F62" t="str">
         <f>INDEX(Define!E:E,MATCH(E62,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>ADV再生</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I62" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G62,[1]Advs!A:A))</f>
+        <v>Tutorial12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>2</v>
       </c>
       <c r="B63">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D63" t="str">
         <f>INDEX(Define!B:B,MATCH(C63,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E63">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F63" t="str">
         <f>INDEX(Define!E:E,MATCH(E63,Define!D:D))</f>
-        <v>隷従属度フラグを管理</v>
+        <v>ADV再生</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I63" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G63,[1]Advs!A:A))</f>
+        <v>Event3_0</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3476,66 +3484,62 @@
         <v>2</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D64" t="str">
         <f>INDEX(Define!B:B,MATCH(C64,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E64">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="str">
         <f>INDEX(Define!E:E,MATCH(E64,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G64">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G64,[1]Advs!A:A))</f>
-        <v>Tutorial12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>Event3_0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>2</v>
       </c>
       <c r="B65">
-        <v>12</v>
+        <v>999</v>
       </c>
       <c r="C65">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D65" t="str">
         <f>INDEX(Define!B:B,MATCH(C65,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E65">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F65" t="str">
         <f>INDEX(Define!E:E,MATCH(E65,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>アルカナフラグを管理</v>
       </c>
       <c r="G65">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G65,[1]Advs!A:A))</f>
-        <v>Event3_0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:8">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3543,28 +3547,24 @@
         <v>12</v>
       </c>
       <c r="C66">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D66" t="str">
         <f>INDEX(Define!B:B,MATCH(C66,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E66">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F66" t="str">
         <f>INDEX(Define!E:E,MATCH(E66,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G66">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>1</v>
-      </c>
-      <c r="I66" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G66,[1]Advs!A:A))</f>
-        <v>Event3_0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3572,7 +3572,7 @@
         <v>2</v>
       </c>
       <c r="B67">
-        <v>999</v>
+        <v>12</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3582,20 +3582,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F67" t="str">
         <f>INDEX(Define!E:E,MATCH(E67,Define!D:D))</f>
-        <v>アルカナフラグを管理</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>2</v>
       </c>
@@ -3610,25 +3610,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E68">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F68" t="str">
         <f>INDEX(Define!E:E,MATCH(E68,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>2</v>
       </c>
       <c r="B69">
-        <v>12</v>
+        <v>999</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3638,25 +3638,29 @@
         <v>Tactics開始</v>
       </c>
       <c r="E69">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F69" t="str">
         <f>INDEX(Define!E:E,MATCH(E69,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ADV再生</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G69,[1]Advs!A:A))</f>
+        <v>Tutorial13</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:8">
       <c r="A70">
         <v>2</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3666,25 +3670,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E70">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F70" t="str">
         <f>INDEX(Define!E:E,MATCH(E70,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>2</v>
       </c>
       <c r="B71">
-        <v>999</v>
+        <v>18</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3694,24 +3698,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E71">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F71" t="str">
         <f>INDEX(Define!E:E,MATCH(E71,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G71">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
-      <c r="I71" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G71,[1]Advs!A:A))</f>
-        <v>Tutorial13</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:8">
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>2</v>
       </c>
@@ -3726,20 +3726,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F72" t="str">
         <f>INDEX(Define!E:E,MATCH(E72,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>2</v>
       </c>
@@ -3747,32 +3747,36 @@
         <v>18</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D73" t="str">
         <f>INDEX(Define!B:B,MATCH(C73,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E73">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F73" t="str">
         <f>INDEX(Define!E:E,MATCH(E73,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G73,[1]Advs!A:A))</f>
+        <v>Event3_5</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:8">
       <c r="A74">
         <v>2</v>
       </c>
       <c r="B74">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3782,52 +3786,48 @@
         <v>Tactics開始</v>
       </c>
       <c r="E74">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F74" t="str">
         <f>INDEX(Define!E:E,MATCH(E74,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>2</v>
       </c>
       <c r="B75">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C75">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D75" t="str">
         <f>INDEX(Define!B:B,MATCH(C75,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E75">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F75" t="str">
         <f>INDEX(Define!E:E,MATCH(E75,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G75">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
-      <c r="I75" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G75,[1]Advs!A:A))</f>
-        <v>Event3_5</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:8">
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>2</v>
       </c>
@@ -3842,17 +3842,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E76">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F76" t="str">
         <f>INDEX(Define!E:E,MATCH(E76,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3860,7 +3860,7 @@
         <v>2</v>
       </c>
       <c r="B77">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3870,45 +3870,49 @@
         <v>Tactics開始</v>
       </c>
       <c r="E77">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F77" t="str">
         <f>INDEX(Define!E:E,MATCH(E77,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>2</v>
       </c>
       <c r="B78">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D78" t="str">
         <f>INDEX(Define!B:B,MATCH(C78,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E78">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F78" t="str">
         <f>INDEX(Define!E:E,MATCH(E78,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G78">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I78" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G78,[1]Advs!A:A))</f>
+        <v>Event4_5</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3916,7 +3920,7 @@
         <v>2</v>
       </c>
       <c r="B79">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3926,14 +3930,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E79">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F79" t="str">
         <f>INDEX(Define!E:E,MATCH(E79,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>ルート分岐パラメータ設定</v>
       </c>
       <c r="G79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -3944,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="B80">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C80">
         <v>11</v>
@@ -3954,21 +3958,21 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E80">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F80" t="str">
         <f>INDEX(Define!E:E,MATCH(E80,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>ルート分岐イベント</v>
       </c>
       <c r="G80">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G80,[1]Advs!A:A))</f>
-        <v>Event4_5</v>
+        <v>Event6_3</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3976,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="B81">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3986,20 +3990,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E81">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F81" t="str">
         <f>INDEX(Define!E:E,MATCH(E81,Define!D:D))</f>
-        <v>ルート分岐パラメータ設定</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>2</v>
       </c>
@@ -4007,36 +4011,32 @@
         <v>37</v>
       </c>
       <c r="C82">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D82" t="str">
         <f>INDEX(Define!B:B,MATCH(C82,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E82">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F82" t="str">
         <f>INDEX(Define!E:E,MATCH(E82,Define!D:D))</f>
-        <v>ルート分岐イベント</v>
+        <v>ルート分岐でステージに移動</v>
       </c>
       <c r="G82">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="H82">
         <v>1</v>
-      </c>
-      <c r="I82" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G82,[1]Advs!A:A))</f>
-        <v>Event6_3</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B83">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4046,25 +4046,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E83">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F83" t="str">
         <f>INDEX(Define!E:E,MATCH(E83,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B84">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -4074,17 +4074,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E84">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F84" t="str">
         <f>INDEX(Define!E:E,MATCH(E84,Define!D:D))</f>
-        <v>ルート分岐でステージに移動</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G84">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4102,14 +4102,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E85">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F85" t="str">
         <f>INDEX(Define!E:E,MATCH(E85,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -4165,7 +4165,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -4186,14 +4186,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F88" t="str">
         <f>INDEX(Define!E:E,MATCH(E88,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>全員コマンドを選ばないと進まない</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -4214,14 +4214,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F89" t="str">
         <f>INDEX(Define!E:E,MATCH(E89,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -4242,72 +4242,16 @@
         <v>Tactics開始</v>
       </c>
       <c r="E90">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F90" t="str">
         <f>INDEX(Define!E:E,MATCH(E90,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91">
-        <v>12</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91" t="str">
-        <f>INDEX(Define!B:B,MATCH(C91,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E91">
-        <v>32</v>
-      </c>
-      <c r="F91" t="str">
-        <f>INDEX(Define!E:E,MATCH(E91,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92">
-        <v>13</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92" t="str">
-        <f>INDEX(Define!B:B,MATCH(C92,Define!A:A))</f>
-        <v>Tactics開始</v>
-      </c>
-      <c r="E92">
-        <v>32</v>
-      </c>
-      <c r="F92" t="str">
-        <f>INDEX(Define!E:E,MATCH(E92,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Data/Stages.xlsx
+++ b/Assets/Resources/Data/Stages.xlsx
@@ -172,8 +172,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -185,25 +185,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,44 +203,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,7 +217,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,8 +237,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,15 +300,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,7 +338,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,19 +356,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,13 +410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,13 +440,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,109 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,30 +529,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -573,24 +549,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,19 +576,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,16 +637,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,127 +655,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1610,7 +1610,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1651,10 +1651,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -4229,10 +4229,10 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4252,6 +4252,286 @@
         <v>0</v>
       </c>
       <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>12</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="str">
+        <f>INDEX(Define!B:B,MATCH(C91,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E91">
+        <v>32</v>
+      </c>
+      <c r="F91" t="str">
+        <f>INDEX(Define!E:E,MATCH(E91,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>12</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="str">
+        <f>INDEX(Define!B:B,MATCH(C92,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E92">
+        <v>32</v>
+      </c>
+      <c r="F92" t="str">
+        <f>INDEX(Define!E:E,MATCH(E92,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>12</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="str">
+        <f>INDEX(Define!B:B,MATCH(C93,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E93">
+        <v>32</v>
+      </c>
+      <c r="F93" t="str">
+        <f>INDEX(Define!E:E,MATCH(E93,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>12</v>
+      </c>
+      <c r="B94">
+        <v>6</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="str">
+        <f>INDEX(Define!B:B,MATCH(C94,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E94">
+        <v>32</v>
+      </c>
+      <c r="F94" t="str">
+        <f>INDEX(Define!E:E,MATCH(E94,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>13</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="str">
+        <f>INDEX(Define!B:B,MATCH(C95,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E95">
+        <v>32</v>
+      </c>
+      <c r="F95" t="str">
+        <f>INDEX(Define!E:E,MATCH(E95,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>13</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="str">
+        <f>INDEX(Define!B:B,MATCH(C96,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E96">
+        <v>32</v>
+      </c>
+      <c r="F96" t="str">
+        <f>INDEX(Define!E:E,MATCH(E96,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>13</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="str">
+        <f>INDEX(Define!B:B,MATCH(C97,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E97">
+        <v>32</v>
+      </c>
+      <c r="F97" t="str">
+        <f>INDEX(Define!E:E,MATCH(E97,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>13</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="str">
+        <f>INDEX(Define!B:B,MATCH(C98,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E98">
+        <v>32</v>
+      </c>
+      <c r="F98" t="str">
+        <f>INDEX(Define!E:E,MATCH(E98,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>13</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="str">
+        <f>INDEX(Define!B:B,MATCH(C99,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E99">
+        <v>32</v>
+      </c>
+      <c r="F99" t="str">
+        <f>INDEX(Define!E:E,MATCH(E99,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>13</v>
+      </c>
+      <c r="B100">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="str">
+        <f>INDEX(Define!B:B,MATCH(C100,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E100">
+        <v>32</v>
+      </c>
+      <c r="F100" t="str">
+        <f>INDEX(Define!E:E,MATCH(E100,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Data/Stages.xlsx
+++ b/Assets/Resources/Data/Stages.xlsx
@@ -171,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -186,7 +186,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,112 +308,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -338,31 +338,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,43 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,13 +416,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,55 +512,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,6 +529,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,17 +552,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,17 +574,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,9 +597,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,145 +637,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1653,8 +1653,8 @@
   <sheetPr/>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4476,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Stages.xlsx
+++ b/Assets/Resources/Data/Stages.xlsx
@@ -4,23 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6690" activeTab="1"/>
+    <workbookView windowWidth="19100" windowHeight="7850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
-    <sheet name="StageEvents" sheetId="3" r:id="rId2"/>
-    <sheet name="TextData" sheetId="2" r:id="rId3"/>
+    <sheet name="StageEvents" sheetId="2" r:id="rId2"/>
+    <sheet name="TextData" sheetId="3" r:id="rId3"/>
     <sheet name="Define" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>Id</t>
   </si>
@@ -171,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -186,25 +186,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,14 +215,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,7 +252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,19 +265,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,22 +283,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,8 +321,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,43 +338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,25 +356,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,25 +398,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,13 +434,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,19 +464,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,19 +512,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,11 +532,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,17 +562,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,8 +574,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,17 +591,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,6 +618,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -637,145 +637,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -798,12 +798,12 @@
     <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
     <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
     <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
-    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
-    <cellStyle name="メモ" xfId="12" builtinId="10"/>
+    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
+    <cellStyle name="メモ" xfId="8" builtinId="10"/>
+    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
     <cellStyle name="良い" xfId="13" builtinId="26"/>
     <cellStyle name="警告文" xfId="14" builtinId="11"/>
     <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
@@ -841,12 +841,7 @@
     <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1512,7 +1507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1649,12 +1644,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -3940,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4542,7 +4537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4629,7 +4624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>

--- a/Assets/Resources/Data/Stages.xlsx
+++ b/Assets/Resources/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7850" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -171,9 +171,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -186,7 +186,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,44 +207,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,12 +254,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -265,19 +276,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,19 +306,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,6 +338,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -350,13 +380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,31 +410,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,25 +446,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,61 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,7 +500,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,6 +529,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -558,24 +576,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,145 +637,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -798,12 +798,12 @@
     <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
     <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
     <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
-    <cellStyle name="メモ" xfId="8" builtinId="10"/>
-    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
+    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
+    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
+    <cellStyle name="メモ" xfId="12" builtinId="10"/>
     <cellStyle name="良い" xfId="13" builtinId="26"/>
     <cellStyle name="警告文" xfId="14" builtinId="11"/>
     <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
@@ -842,6 +842,11 @@
     <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1507,7 +1512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1644,12 +1649,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -4364,10 +4369,10 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4395,7 +4400,7 @@
         <v>13</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4423,7 +4428,7 @@
         <v>13</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4451,7 +4456,7 @@
         <v>13</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4479,7 +4484,7 @@
         <v>13</v>
       </c>
       <c r="B99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4507,7 +4512,7 @@
         <v>13</v>
       </c>
       <c r="B100">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4527,6 +4532,62 @@
         <v>0</v>
       </c>
       <c r="H100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>13</v>
+      </c>
+      <c r="B101">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" t="str">
+        <f>INDEX(Define!B:B,MATCH(C101,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E101">
+        <v>32</v>
+      </c>
+      <c r="F101" t="str">
+        <f>INDEX(Define!E:E,MATCH(E101,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>13</v>
+      </c>
+      <c r="B102">
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="str">
+        <f>INDEX(Define!B:B,MATCH(C102,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E102">
+        <v>32</v>
+      </c>
+      <c r="F102" t="str">
+        <f>INDEX(Define!E:E,MATCH(E102,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
         <v>1</v>
       </c>
     </row>
@@ -4537,7 +4598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4624,7 +4685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>

--- a/Assets/Resources/Data/Stages.xlsx
+++ b/Assets/Resources/Data/Stages.xlsx
@@ -171,9 +171,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -185,6 +185,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -193,7 +246,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,8 +268,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,61 +292,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,17 +322,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,7 +338,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,121 +488,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,49 +512,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,6 +532,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -541,11 +556,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,21 +616,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -594,41 +629,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -637,16 +637,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,127 +655,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1653,8 +1653,8 @@
   <sheetPr/>
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>

--- a/Assets/Resources/Data/Stages.xlsx
+++ b/Assets/Resources/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -165,14 +165,17 @@
   <si>
     <t>ルート分岐敵グループを生成</t>
   </si>
+  <si>
+    <t>継承スキル演出開始</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -185,48 +188,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,24 +202,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,9 +240,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,6 +293,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -308,22 +317,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,6 +338,30 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -350,13 +377,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,25 +425,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,127 +515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,15 +546,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,20 +576,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,6 +594,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,7 +640,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,7 +649,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,127 +658,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -972,281 +975,289 @@
         </row>
         <row r="15">
           <cell r="A15">
-            <v>101</v>
+            <v>51</v>
           </cell>
           <cell r="B15" t="str">
-            <v>Opening</v>
+            <v>RebornEffect</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>111</v>
+            <v>101</v>
           </cell>
           <cell r="B16" t="str">
-            <v>Event1_1</v>
+            <v>Opening</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>112</v>
+            <v>111</v>
           </cell>
           <cell r="B17" t="str">
-            <v>Event1_2</v>
+            <v>Event1_1</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>113</v>
+            <v>112</v>
           </cell>
           <cell r="B18" t="str">
-            <v>Event1_3</v>
+            <v>Event1_2</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>114</v>
+            <v>113</v>
           </cell>
           <cell r="B19" t="str">
-            <v>Event1_4</v>
+            <v>Event1_3</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>115</v>
+            <v>114</v>
           </cell>
           <cell r="B20" t="str">
-            <v>Event1_5</v>
+            <v>Event1_4</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>121</v>
+            <v>115</v>
           </cell>
           <cell r="B21" t="str">
-            <v>Event2_1</v>
+            <v>Event1_5</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>122</v>
+            <v>121</v>
           </cell>
           <cell r="B22" t="str">
-            <v>Event2_2</v>
+            <v>Event2_1</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>123</v>
+            <v>122</v>
           </cell>
           <cell r="B23" t="str">
-            <v>Event2_3</v>
+            <v>Event2_2</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>124</v>
+            <v>123</v>
           </cell>
           <cell r="B24" t="str">
-            <v>Event2_4</v>
+            <v>Event2_3</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>125</v>
+            <v>124</v>
           </cell>
           <cell r="B25" t="str">
-            <v>Event2_5</v>
+            <v>Event2_4</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>131</v>
+            <v>125</v>
           </cell>
           <cell r="B26" t="str">
-            <v>Stage2_1</v>
+            <v>Event2_5</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>140</v>
+            <v>131</v>
           </cell>
           <cell r="B27" t="str">
-            <v>Event3_0</v>
+            <v>Stage2_1</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>141</v>
+            <v>140</v>
           </cell>
           <cell r="B28" t="str">
-            <v>Event3_1</v>
+            <v>Event3_0</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>142</v>
+            <v>141</v>
           </cell>
           <cell r="B29" t="str">
-            <v>Event3_2</v>
+            <v>Event3_1</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>143</v>
+            <v>142</v>
           </cell>
           <cell r="B30" t="str">
-            <v>Event3_3</v>
+            <v>Event3_2</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>144</v>
+            <v>143</v>
           </cell>
           <cell r="B31" t="str">
-            <v>Event3_4</v>
+            <v>Event3_3</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>145</v>
+            <v>144</v>
           </cell>
           <cell r="B32" t="str">
-            <v>Event3_5</v>
+            <v>Event3_4</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>151</v>
+            <v>145</v>
           </cell>
           <cell r="B33" t="str">
-            <v>Event4_1</v>
+            <v>Event3_5</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>152</v>
+            <v>151</v>
           </cell>
           <cell r="B34" t="str">
-            <v>Event4_2</v>
+            <v>Event4_1</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>153</v>
+            <v>152</v>
           </cell>
           <cell r="B35" t="str">
-            <v>Event4_3</v>
+            <v>Event4_2</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>154</v>
+            <v>153</v>
           </cell>
           <cell r="B36" t="str">
-            <v>Event4_4</v>
+            <v>Event4_3</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>155</v>
+            <v>154</v>
           </cell>
           <cell r="B37" t="str">
-            <v>Event4_5</v>
+            <v>Event4_4</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>161</v>
+            <v>155</v>
           </cell>
           <cell r="B38" t="str">
-            <v>Event5_1</v>
+            <v>Event4_5</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>162</v>
+            <v>161</v>
           </cell>
           <cell r="B39" t="str">
-            <v>Event5_2</v>
+            <v>Event5_1</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>163</v>
+            <v>162</v>
           </cell>
           <cell r="B40" t="str">
-            <v>Event5_3</v>
+            <v>Event5_2</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>164</v>
+            <v>163</v>
           </cell>
           <cell r="B41" t="str">
-            <v>Event5_4</v>
+            <v>Event5_3</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>165</v>
+            <v>164</v>
           </cell>
           <cell r="B42" t="str">
-            <v>Event5_5</v>
+            <v>Event5_4</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>171</v>
+            <v>165</v>
           </cell>
           <cell r="B43" t="str">
-            <v>Event6_1</v>
+            <v>Event5_5</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>172</v>
+            <v>171</v>
           </cell>
           <cell r="B44" t="str">
-            <v>Event6_2</v>
+            <v>Event6_1</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>173</v>
+            <v>172</v>
           </cell>
           <cell r="B45" t="str">
-            <v>Event6_3</v>
+            <v>Event6_2</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>201</v>
+            <v>173</v>
           </cell>
           <cell r="B46" t="str">
-            <v>RouteSelect1</v>
+            <v>Event6_3</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>202</v>
+            <v>201</v>
           </cell>
           <cell r="B47" t="str">
-            <v>RouteSelect2</v>
+            <v>RouteSelect1</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>203</v>
+            <v>202</v>
           </cell>
           <cell r="B48" t="str">
-            <v>Gameover</v>
+            <v>RouteSelect2</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
+            <v>203</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>Gameover</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
             <v>204</v>
           </cell>
-          <cell r="B49" t="str">
+          <cell r="B50" t="str">
             <v>Turnover</v>
           </cell>
         </row>
@@ -1651,10 +1662,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -3019,32 +3030,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>2</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D48" t="str">
         <f>INDEX(Define!B:B,MATCH(C48,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F48" t="str">
         <f>INDEX(Define!E:E,MATCH(E48,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ADV再生</v>
       </c>
       <c r="G48">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G48,[1]Advs!A:A))</f>
+        <v>RebornEffect</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3052,27 +3067,27 @@
         <v>2</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D49" t="str">
         <f>INDEX(Define!B:B,MATCH(C49,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F49" t="str">
         <f>INDEX(Define!E:E,MATCH(E49,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>継承スキル演出開始</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3080,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3108,7 +3123,7 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3125,7 +3140,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -3136,7 +3151,7 @@
         <v>2</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3153,7 +3168,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -3181,7 +3196,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -3209,7 +3224,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -3230,14 +3245,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F55" t="str">
         <f>INDEX(Define!E:E,MATCH(E55,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -3251,56 +3266,52 @@
         <v>5</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D56" t="str">
         <f>INDEX(Define!B:B,MATCH(C56,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E56">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F56" t="str">
         <f>INDEX(Define!E:E,MATCH(E56,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G56">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="H56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>2</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D57" t="str">
         <f>INDEX(Define!B:B,MATCH(C57,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E57">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F57" t="str">
         <f>INDEX(Define!E:E,MATCH(E57,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>全員コマンドを選ばないと進まない</v>
       </c>
       <c r="G57">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G57,[1]Advs!A:A))</f>
-        <v>Stage2_1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3308,30 +3319,30 @@
         <v>2</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D58" t="str">
         <f>INDEX(Define!B:B,MATCH(C58,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E58">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F58" t="str">
         <f>INDEX(Define!E:E,MATCH(E58,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3339,24 +3350,28 @@
         <v>6</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D59" t="str">
         <f>INDEX(Define!B:B,MATCH(C59,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E59">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F59" t="str">
         <f>INDEX(Define!E:E,MATCH(E59,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ADV再生</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="H59">
         <v>1</v>
+      </c>
+      <c r="I59" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G59,[1]Advs!A:A))</f>
+        <v>Stage2_1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3374,17 +3389,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E60">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F60" t="str">
         <f>INDEX(Define!E:E,MATCH(E60,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3402,20 +3417,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F61" t="str">
         <f>INDEX(Define!E:E,MATCH(E61,Define!D:D))</f>
-        <v>隷従属度フラグを管理</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>2</v>
       </c>
@@ -3430,53 +3445,45 @@
         <v>Tactics開始</v>
       </c>
       <c r="E62">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F62" t="str">
         <f>INDEX(Define!E:E,MATCH(E62,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G62">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G62,[1]Advs!A:A))</f>
-        <v>Tutorial12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>2</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C63">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D63" t="str">
         <f>INDEX(Define!B:B,MATCH(C63,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E63">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F63" t="str">
         <f>INDEX(Define!E:E,MATCH(E63,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>隷従属度フラグを管理</v>
       </c>
       <c r="G63">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G63,[1]Advs!A:A))</f>
-        <v>Event3_0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3484,62 +3491,66 @@
         <v>2</v>
       </c>
       <c r="B64">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C64">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D64" t="str">
         <f>INDEX(Define!B:B,MATCH(C64,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E64">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F64" t="str">
         <f>INDEX(Define!E:E,MATCH(E64,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>ADV再生</v>
       </c>
       <c r="G64">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G64,[1]Advs!A:A))</f>
-        <v>Event3_0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>Tutorial12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>2</v>
       </c>
       <c r="B65">
-        <v>999</v>
+        <v>12</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D65" t="str">
         <f>INDEX(Define!B:B,MATCH(C65,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F65" t="str">
         <f>INDEX(Define!E:E,MATCH(E65,Define!D:D))</f>
-        <v>アルカナフラグを管理</v>
+        <v>ADV再生</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="H65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I65" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G65,[1]Advs!A:A))</f>
+        <v>Event3_0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3547,24 +3558,28 @@
         <v>12</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D66" t="str">
         <f>INDEX(Define!B:B,MATCH(C66,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E66">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F66" t="str">
         <f>INDEX(Define!E:E,MATCH(E66,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="H66">
         <v>1</v>
+      </c>
+      <c r="I66" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G66,[1]Advs!A:A))</f>
+        <v>Event3_0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3572,7 +3587,7 @@
         <v>2</v>
       </c>
       <c r="B67">
-        <v>12</v>
+        <v>999</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3582,20 +3597,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E67">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F67" t="str">
         <f>INDEX(Define!E:E,MATCH(E67,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>アルカナフラグを管理</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:8">
       <c r="A68">
         <v>2</v>
       </c>
@@ -3610,25 +3625,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E68">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F68" t="str">
         <f>INDEX(Define!E:E,MATCH(E68,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>2</v>
       </c>
       <c r="B69">
-        <v>999</v>
+        <v>12</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3638,29 +3653,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E69">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F69" t="str">
         <f>INDEX(Define!E:E,MATCH(E69,Define!D:D))</f>
-        <v>ADV再生</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G69">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
-      <c r="I69" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G69,[1]Advs!A:A))</f>
-        <v>Tutorial13</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:8">
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>2</v>
       </c>
       <c r="B70">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3670,25 +3681,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E70">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F70" t="str">
         <f>INDEX(Define!E:E,MATCH(E70,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>2</v>
       </c>
       <c r="B71">
-        <v>18</v>
+        <v>999</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -3698,20 +3709,24 @@
         <v>Tactics開始</v>
       </c>
       <c r="E71">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F71" t="str">
         <f>INDEX(Define!E:E,MATCH(E71,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ADV再生</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G71,[1]Advs!A:A))</f>
+        <v>Tutorial13</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:8">
       <c r="A72">
         <v>2</v>
       </c>
@@ -3726,20 +3741,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E72">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F72" t="str">
         <f>INDEX(Define!E:E,MATCH(E72,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>2</v>
       </c>
@@ -3747,36 +3762,32 @@
         <v>18</v>
       </c>
       <c r="C73">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D73" t="str">
         <f>INDEX(Define!B:B,MATCH(C73,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E73">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F73" t="str">
         <f>INDEX(Define!E:E,MATCH(E73,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G73">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
-      <c r="I73" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G73,[1]Advs!A:A))</f>
-        <v>Event3_5</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:8">
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>2</v>
       </c>
       <c r="B74">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3786,48 +3797,52 @@
         <v>Tactics開始</v>
       </c>
       <c r="E74">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F74" t="str">
         <f>INDEX(Define!E:E,MATCH(E74,Define!D:D))</f>
-        <v>仲間を選んで加入する</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>2</v>
       </c>
       <c r="B75">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D75" t="str">
         <f>INDEX(Define!B:B,MATCH(C75,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E75">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F75" t="str">
         <f>INDEX(Define!E:E,MATCH(E75,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G75,[1]Advs!A:A))</f>
+        <v>Event3_5</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:8">
       <c r="A76">
         <v>2</v>
       </c>
@@ -3842,17 +3857,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E76">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F76" t="str">
         <f>INDEX(Define!E:E,MATCH(E76,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>仲間を選んで加入する</v>
       </c>
       <c r="G76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3860,7 +3875,7 @@
         <v>2</v>
       </c>
       <c r="B77">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -3870,49 +3885,45 @@
         <v>Tactics開始</v>
       </c>
       <c r="E77">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" t="str">
         <f>INDEX(Define!E:E,MATCH(E77,Define!D:D))</f>
-        <v>ボスの選択番号を設定する</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G77">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>2</v>
       </c>
       <c r="B78">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C78">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D78" t="str">
         <f>INDEX(Define!B:B,MATCH(C78,Define!A:A))</f>
-        <v>Tactics開始(UI表示前)</v>
+        <v>Tactics開始</v>
       </c>
       <c r="E78">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F78" t="str">
         <f>INDEX(Define!E:E,MATCH(E78,Define!D:D))</f>
-        <v>IDにActorIDを加算してADV再生</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G78">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78" t="str">
-        <f>INDEX([1]Advs!B:B,MATCH(G78,[1]Advs!A:A))</f>
-        <v>Event4_5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3920,7 +3931,7 @@
         <v>2</v>
       </c>
       <c r="B79">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -3930,17 +3941,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E79">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F79" t="str">
         <f>INDEX(Define!E:E,MATCH(E79,Define!D:D))</f>
-        <v>ルート分岐パラメータ設定</v>
+        <v>ボスの選択番号を設定する</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3948,7 +3959,7 @@
         <v>2</v>
       </c>
       <c r="B80">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C80">
         <v>11</v>
@@ -3958,21 +3969,21 @@
         <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E80">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F80" t="str">
         <f>INDEX(Define!E:E,MATCH(E80,Define!D:D))</f>
-        <v>ルート分岐イベント</v>
+        <v>IDにActorIDを加算してADV再生</v>
       </c>
       <c r="G80">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80" t="str">
         <f>INDEX([1]Advs!B:B,MATCH(G80,[1]Advs!A:A))</f>
-        <v>Event6_3</v>
+        <v>Event4_5</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3980,7 +3991,7 @@
         <v>2</v>
       </c>
       <c r="B81">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -3990,20 +4001,20 @@
         <v>Tactics開始</v>
       </c>
       <c r="E81">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F81" t="str">
         <f>INDEX(Define!E:E,MATCH(E81,Define!D:D))</f>
-        <v>セーブを行う</v>
+        <v>ルート分岐パラメータ設定</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>2</v>
       </c>
@@ -4011,32 +4022,36 @@
         <v>37</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D82" t="str">
         <f>INDEX(Define!B:B,MATCH(C82,Define!A:A))</f>
-        <v>Tactics開始</v>
+        <v>Tactics開始(UI表示前)</v>
       </c>
       <c r="E82">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F82" t="str">
         <f>INDEX(Define!E:E,MATCH(E82,Define!D:D))</f>
-        <v>ルート分岐でステージに移動</v>
+        <v>ルート分岐イベント</v>
       </c>
       <c r="G82">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="H82">
         <v>1</v>
+      </c>
+      <c r="I82" t="str">
+        <f>INDEX([1]Advs!B:B,MATCH(G82,[1]Advs!A:A))</f>
+        <v>Event6_3</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4046,14 +4061,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E83">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F83" t="str">
         <f>INDEX(Define!E:E,MATCH(E83,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>セーブを行う</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -4061,10 +4076,10 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -4074,17 +4089,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F84" t="str">
         <f>INDEX(Define!E:E,MATCH(E84,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ルート分岐でステージに移動</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4102,17 +4117,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F85" t="str">
         <f>INDEX(Define!E:E,MATCH(E85,Define!D:D))</f>
-        <v>コマンドを制限する</v>
+        <v>ルート分岐敵グループを生成</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4137,7 +4152,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -4165,7 +4180,7 @@
         <v>コマンドを制限する</v>
       </c>
       <c r="G87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -4186,14 +4201,14 @@
         <v>Tactics開始</v>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F88" t="str">
         <f>INDEX(Define!E:E,MATCH(E88,Define!D:D))</f>
-        <v>全員コマンドを選ばないと進まない</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4201,7 +4216,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -4214,25 +4229,25 @@
         <v>Tactics開始</v>
       </c>
       <c r="E89">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F89" t="str">
         <f>INDEX(Define!E:E,MATCH(E89,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>コマンドを制限する</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4242,17 +4257,17 @@
         <v>Tactics開始</v>
       </c>
       <c r="E90">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F90" t="str">
         <f>INDEX(Define!E:E,MATCH(E90,Define!D:D))</f>
-        <v>ルート分岐敵グループを生成</v>
+        <v>全員コマンドを選ばないと進まない</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4260,7 +4275,7 @@
         <v>12</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4288,7 +4303,7 @@
         <v>12</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4316,7 +4331,7 @@
         <v>12</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4344,7 +4359,7 @@
         <v>12</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4372,7 +4387,7 @@
         <v>12</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4397,10 +4412,10 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4425,10 +4440,10 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4456,7 +4471,7 @@
         <v>13</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4484,7 +4499,7 @@
         <v>13</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4512,7 +4527,7 @@
         <v>13</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4540,7 +4555,7 @@
         <v>13</v>
       </c>
       <c r="B101">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4568,7 +4583,7 @@
         <v>13</v>
       </c>
       <c r="B102">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4588,6 +4603,62 @@
         <v>0</v>
       </c>
       <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>13</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="str">
+        <f>INDEX(Define!B:B,MATCH(C103,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E103">
+        <v>32</v>
+      </c>
+      <c r="F103" t="str">
+        <f>INDEX(Define!E:E,MATCH(E103,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>13</v>
+      </c>
+      <c r="B104">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="str">
+        <f>INDEX(Define!B:B,MATCH(C104,Define!A:A))</f>
+        <v>Tactics開始</v>
+      </c>
+      <c r="E104">
+        <v>32</v>
+      </c>
+      <c r="F104" t="str">
+        <f>INDEX(Define!E:E,MATCH(E104,Define!D:D))</f>
+        <v>ルート分岐敵グループを生成</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>1</v>
       </c>
     </row>
@@ -4687,10 +4758,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -4881,6 +4952,14 @@
         <v>44</v>
       </c>
     </row>
+    <row r="19" spans="4:5">
+      <c r="D19">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Resources/Data/Stages.xlsx
+++ b/Assets/Resources/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6620"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>BGMId</t>
+  </si>
+  <si>
+    <t>Reborn</t>
   </si>
   <si>
     <t>1,2,3,4,5</t>
@@ -174,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -188,6 +191,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -203,38 +293,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,46 +307,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,33 +328,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,31 +344,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +374,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,127 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,6 +535,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -565,24 +586,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -609,15 +612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -632,6 +626,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -640,145 +643,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1525,15 +1528,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1552,8 +1555,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1572,8 +1578,11 @@
       <c r="F2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1584,16 +1593,19 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>11</v>
       </c>
@@ -1612,8 +1624,11 @@
       <c r="F4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>12</v>
       </c>
@@ -1632,8 +1647,11 @@
       <c r="F5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>13</v>
       </c>
@@ -1651,6 +1669,9 @@
       </c>
       <c r="F6">
         <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1664,7 +1685,7 @@
   <sheetPr/>
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -1682,16 +1703,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4688,10 +4709,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" ht="26" spans="1:3">
@@ -4699,10 +4720,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" ht="143" spans="1:3">
@@ -4710,10 +4731,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4721,10 +4742,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4732,10 +4753,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4743,10 +4764,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4768,10 +4789,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4779,13 +4800,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4793,13 +4814,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4807,13 +4828,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4821,13 +4842,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4835,13 +4856,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4849,13 +4870,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4863,13 +4884,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="4:5">
@@ -4877,7 +4898,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="4:5">
@@ -4885,7 +4906,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="4:5">
@@ -4893,7 +4914,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="4:5">
@@ -4901,7 +4922,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="4:5">
@@ -4909,7 +4930,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="4:5">
@@ -4917,7 +4938,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="4:5">
@@ -4925,7 +4946,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="4:5">
@@ -4933,7 +4954,7 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="4:5">
@@ -4941,7 +4962,7 @@
         <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="4:5">
@@ -4949,7 +4970,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="4:5">
@@ -4957,7 +4978,7 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/Stages.xlsx
+++ b/Assets/Resources/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620"/>
+    <workbookView windowWidth="19200" windowHeight="7210"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <t>Reborn</t>
   </si>
   <si>
-    <t>1,2,3,4,5</t>
+    <t>1,2,3,4,5,13,14</t>
   </si>
   <si>
     <t>3,4,5</t>
@@ -177,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -191,9 +191,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,11 +214,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,7 +245,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,37 +284,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,32 +305,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,13 +330,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,79 +350,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +368,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +416,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,31 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +494,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,19 +512,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,24 +535,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -571,6 +553,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -582,6 +573,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,21 +627,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -643,145 +643,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1531,7 +1531,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="6"/>

--- a/Assets/Resources/Data/Stages.xlsx
+++ b/Assets/Resources/Data/Stages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7210"/>
+    <workbookView windowWidth="19200" windowHeight="6500"/>
   </bookViews>
   <sheets>
     <sheet name="Stages" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <t>Reborn</t>
   </si>
   <si>
-    <t>1,2,3,4,5,13,14</t>
+    <t>1,2,3,4,5,6,7,11,13,14</t>
   </si>
   <si>
     <t>3,4,5</t>
@@ -178,9 +178,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -192,15 +192,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,38 +235,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,21 +259,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -290,8 +267,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,14 +277,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -322,14 +321,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,7 +344,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,7 +386,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,79 +500,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,79 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,26 +538,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,11 +562,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,17 +607,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,15 +635,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,16 +643,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,127 +661,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1531,7 +1531,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="6"/>
